--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_20-31.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_20-31.xlsx
@@ -92,6 +92,9 @@
     <t>CEFOTAX 2 GM VIAL</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t xml:space="preserve">EGUNAZ D3 &amp;K2   20CAP  CAPS</t>
   </si>
   <si>
+    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -167,67 +173,67 @@
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>GENUPHIL ADVANCE 10 SACHETS</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>IS IS بقدونس كرفس</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>MEGABIO 750 MG 5 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>MOXACIN 400 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PENDULINE كرلي كريم</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
     <t>1:4</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>GENUPHIL ADVANCE 10 SACHETS</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>IS IS بقدونس كرفس</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>MEGABIO 750 MG 5 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>MOXACIN 400 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PENDULINE كرلي كريم</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>7:4</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
@@ -1281,17 +1287,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>43.329999999999998</v>
+        <v>118</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1307,17 +1313,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>22</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1333,17 +1339,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1359,17 +1365,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1377,7 +1383,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1385,13 +1391,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1403,7 +1409,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1411,17 +1417,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1429,7 +1435,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1437,17 +1443,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1463,17 +1469,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1481,7 +1487,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1489,17 +1495,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1507,7 +1513,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1515,17 +1521,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1533,7 +1539,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1541,13 +1547,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1567,13 +1573,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>57.600000000000001</v>
+        <v>14</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1593,17 +1599,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1619,17 +1625,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1637,7 +1643,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1645,17 +1651,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1663,7 +1669,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1671,17 +1677,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1703,11 +1709,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>2</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1723,17 +1729,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>55.670000000000002</v>
+        <v>45</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1741,7 +1747,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1749,17 +1755,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.17000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1767,7 +1773,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1775,17 +1781,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>1475</v>
+        <v>110.22</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>5</v>
+        <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1793,7 +1799,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1801,17 +1807,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>2</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1819,7 +1825,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1833,11 +1839,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>92</v>
+        <v>1475</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1845,7 +1851,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1853,17 +1859,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1871,7 +1877,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1879,13 +1885,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1897,7 +1903,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1905,17 +1911,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1923,7 +1929,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1937,7 +1943,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1949,7 +1955,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1957,17 +1963,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1975,7 +1981,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1983,13 +1989,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2001,7 +2007,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2015,7 +2021,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2027,7 +2033,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2035,17 +2041,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2053,7 +2059,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2067,7 +2073,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2079,7 +2085,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2087,13 +2093,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2105,7 +2111,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2119,7 +2125,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2131,7 +2137,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2139,17 +2145,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2157,7 +2163,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2165,17 +2171,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>7.0499999999999998</v>
+        <v>130</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2183,7 +2189,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2191,17 +2197,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>221.16</v>
+        <v>7</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2209,7 +2215,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2217,17 +2223,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>58</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.5</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2249,7 +2255,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>160.55000000000001</v>
+        <v>221.16</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2269,17 +2275,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2287,7 +2293,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2295,13 +2301,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>192</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2313,7 +2319,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2321,17 +2327,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2353,7 +2359,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>115.2</v>
+        <v>192</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2373,13 +2379,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>28.710000000000001</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
@@ -2399,17 +2405,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>115.2</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2431,11 +2437,11 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>250</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2451,13 +2457,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2477,13 +2483,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2495,7 +2501,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2503,17 +2509,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2521,7 +2527,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2529,13 +2535,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2547,7 +2553,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2555,17 +2561,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2573,7 +2579,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2581,17 +2587,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>40.5</v>
+        <v>56</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2599,7 +2605,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2607,13 +2613,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2625,7 +2631,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2633,17 +2639,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2651,7 +2657,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2659,13 +2665,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2677,7 +2683,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2685,17 +2691,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2703,7 +2709,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2717,11 +2723,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2729,7 +2735,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2737,17 +2743,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2763,17 +2769,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2789,17 +2795,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2815,17 +2821,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2833,7 +2839,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2841,17 +2847,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2859,7 +2865,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2867,17 +2873,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2885,7 +2891,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2893,17 +2899,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2919,13 +2925,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -2945,51 +2951,103 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="26.25" customHeight="1">
-      <c r="K82" s="11">
-        <v>5946.2700000000004</v>
-      </c>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
         <v>113</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c t="s" r="F83" s="13">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>102</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>20</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c t="s" r="B83" s="7">
         <v>114</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c t="s" r="I83" s="15">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c t="s" r="H83" s="8">
+        <v>102</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9">
+        <v>8</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="K84" s="11">
+        <v>6198.8199999999997</v>
+      </c>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="12">
         <v>115</v>
       </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c t="s" r="F85" s="13">
+        <v>116</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c t="s" r="I85" s="15">
+        <v>117</v>
+      </c>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="245">
+  <mergeCells count="251">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3231,10 +3289,16 @@
     <mergeCell ref="B81:G81"/>
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="I83:N83"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:N85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
